--- a/boardLayout.xlsx
+++ b/boardLayout.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" refMode="R1C1"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -255,21 +254,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -285,12 +287,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
@@ -603,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,7 +630,7 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -657,7 +654,7 @@
       <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -678,7 +675,7 @@
       <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -710,7 +707,7 @@
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -814,7 +811,7 @@
       <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -864,7 +861,7 @@
       <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -894,7 +891,7 @@
       <c r="P4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -965,7 +962,7 @@
       <c r="N5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1385,7 +1382,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1631,7 +1628,7 @@
       <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -1741,7 +1738,7 @@
       <c r="P15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -1954,7 +1951,7 @@
       <c r="J18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -2401,7 +2398,7 @@
       <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -2428,7 +2425,7 @@
       <c r="N24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="P24" s="2" t="s">
@@ -2537,95 +2534,95 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
